--- a/DATA/collate_cultivar_data_50_percent/data/kcp_vs_smoothed_cumul_gdd.xlsx
+++ b/DATA/collate_cultivar_data_50_percent/data/kcp_vs_smoothed_cumul_gdd.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C668"/>
+  <dimension ref="A1:C664"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5600,7 +5600,7 @@
         <v>43153</v>
       </c>
       <c r="B474">
-        <v>1238.3287388</v>
+        <v>1238.3287387</v>
       </c>
       <c r="C474">
         <v>0.4360848</v>
@@ -5611,7 +5611,7 @@
         <v>43153</v>
       </c>
       <c r="B475">
-        <v>1238.3287388</v>
+        <v>1238.3287387</v>
       </c>
       <c r="C475">
         <v>0.4360848</v>
@@ -5622,7 +5622,7 @@
         <v>43154</v>
       </c>
       <c r="B476">
-        <v>1247.7850513</v>
+        <v>1247.7850512</v>
       </c>
       <c r="C476">
         <v>0.4360848</v>
@@ -5633,7 +5633,7 @@
         <v>43154</v>
       </c>
       <c r="B477">
-        <v>1247.7850513</v>
+        <v>1247.7850512</v>
       </c>
       <c r="C477">
         <v>0.4360848</v>
@@ -5644,7 +5644,7 @@
         <v>43155</v>
       </c>
       <c r="B478">
-        <v>1257.0781465</v>
+        <v>1257.0781463</v>
       </c>
       <c r="C478">
         <v>0.4253109</v>
@@ -5655,7 +5655,7 @@
         <v>43155</v>
       </c>
       <c r="B479">
-        <v>1257.0781465</v>
+        <v>1257.0781463</v>
       </c>
       <c r="C479">
         <v>0.4253109</v>
@@ -5666,7 +5666,7 @@
         <v>43156</v>
       </c>
       <c r="B480">
-        <v>1266.2100486</v>
+        <v>1266.2100482</v>
       </c>
       <c r="C480">
         <v>0.4253109</v>
@@ -5677,7 +5677,7 @@
         <v>43156</v>
       </c>
       <c r="B481">
-        <v>1266.2100486</v>
+        <v>1266.2100482</v>
       </c>
       <c r="C481">
         <v>0.4253109</v>
@@ -5688,7 +5688,7 @@
         <v>43157</v>
       </c>
       <c r="B482">
-        <v>1275.1842629</v>
+        <v>1275.1842622</v>
       </c>
       <c r="C482">
         <v>0.4253109</v>
@@ -5699,7 +5699,7 @@
         <v>43157</v>
       </c>
       <c r="B483">
-        <v>1275.1842629</v>
+        <v>1275.1842622</v>
       </c>
       <c r="C483">
         <v>0.4253109</v>
@@ -5710,7 +5710,7 @@
         <v>43158</v>
       </c>
       <c r="B484">
-        <v>1284.0055897</v>
+        <v>1284.0055885</v>
       </c>
       <c r="C484">
         <v>0.4253109</v>
@@ -5721,7 +5721,7 @@
         <v>43158</v>
       </c>
       <c r="B485">
-        <v>1284.0055897</v>
+        <v>1284.0055885</v>
       </c>
       <c r="C485">
         <v>0.4253109</v>
@@ -5732,7 +5732,7 @@
         <v>43159</v>
       </c>
       <c r="B486">
-        <v>1292.6799128</v>
+        <v>1292.6799108</v>
       </c>
       <c r="C486">
         <v>0.4253109</v>
@@ -5743,7 +5743,7 @@
         <v>43159</v>
       </c>
       <c r="B487">
-        <v>1292.6799128</v>
+        <v>1292.6799108</v>
       </c>
       <c r="C487">
         <v>0.4253109</v>
@@ -5754,7 +5754,7 @@
         <v>43160</v>
       </c>
       <c r="B488">
-        <v>1301.213975</v>
+        <v>1301.2139715</v>
       </c>
       <c r="C488">
         <v>0.4253109</v>
@@ -5765,7 +5765,7 @@
         <v>43160</v>
       </c>
       <c r="B489">
-        <v>1301.213975</v>
+        <v>1301.2139715</v>
       </c>
       <c r="C489">
         <v>0.4253109</v>
@@ -5776,7 +5776,7 @@
         <v>43161</v>
       </c>
       <c r="B490">
-        <v>1309.6151456</v>
+        <v>1309.6151396</v>
       </c>
       <c r="C490">
         <v>0.4253109</v>
@@ -5787,7 +5787,7 @@
         <v>43161</v>
       </c>
       <c r="B491">
-        <v>1309.6151456</v>
+        <v>1309.6151396</v>
       </c>
       <c r="C491">
         <v>0.4253109</v>
@@ -5798,7 +5798,7 @@
         <v>43162</v>
       </c>
       <c r="B492">
-        <v>1317.8911919</v>
+        <v>1317.891182</v>
       </c>
       <c r="C492">
         <v>0.4131955</v>
@@ -5809,7 +5809,7 @@
         <v>43162</v>
       </c>
       <c r="B493">
-        <v>1317.8911919</v>
+        <v>1317.891182</v>
       </c>
       <c r="C493">
         <v>0.4131955</v>
@@ -5820,7 +5820,7 @@
         <v>43163</v>
       </c>
       <c r="B494">
-        <v>1326.050059</v>
+        <v>1326.0500426</v>
       </c>
       <c r="C494">
         <v>0.4131955</v>
@@ -5831,7 +5831,7 @@
         <v>43163</v>
       </c>
       <c r="B495">
-        <v>1326.050059</v>
+        <v>1326.0500426</v>
       </c>
       <c r="C495">
         <v>0.4131955</v>
@@ -5842,7 +5842,7 @@
         <v>43164</v>
       </c>
       <c r="B496">
-        <v>1334.0996654</v>
+        <v>1334.0996383</v>
       </c>
       <c r="C496">
         <v>0.4131955</v>
@@ -5853,7 +5853,7 @@
         <v>43164</v>
       </c>
       <c r="B497">
-        <v>1334.0996654</v>
+        <v>1334.0996383</v>
       </c>
       <c r="C497">
         <v>0.4131955</v>
@@ -5864,7 +5864,7 @@
         <v>43165</v>
       </c>
       <c r="B498">
-        <v>1342.047718</v>
+        <v>1342.0476741</v>
       </c>
       <c r="C498">
         <v>0.4131955</v>
@@ -5875,7 +5875,7 @@
         <v>43165</v>
       </c>
       <c r="B499">
-        <v>1342.047718</v>
+        <v>1342.0476741</v>
       </c>
       <c r="C499">
         <v>0.4131955</v>
@@ -5886,7 +5886,7 @@
         <v>43166</v>
       </c>
       <c r="B500">
-        <v>1349.9015517</v>
+        <v>1349.9014811</v>
       </c>
       <c r="C500">
         <v>0.4131955</v>
@@ -5897,7 +5897,7 @@
         <v>43166</v>
       </c>
       <c r="B501">
-        <v>1349.9015517</v>
+        <v>1349.9014811</v>
       </c>
       <c r="C501">
         <v>0.4131955</v>
@@ -5908,7 +5908,7 @@
         <v>43167</v>
       </c>
       <c r="B502">
-        <v>1357.667993</v>
+        <v>1357.6678806</v>
       </c>
       <c r="C502">
         <v>0.4131955</v>
@@ -5919,7 +5919,7 @@
         <v>43167</v>
       </c>
       <c r="B503">
-        <v>1357.667993</v>
+        <v>1357.6678806</v>
       </c>
       <c r="C503">
         <v>0.4131955</v>
@@ -5930,7 +5930,7 @@
         <v>43168</v>
       </c>
       <c r="B504">
-        <v>1365.3532509</v>
+        <v>1365.3530739</v>
       </c>
       <c r="C504">
         <v>0.4131955</v>
@@ -5941,7 +5941,7 @@
         <v>43168</v>
       </c>
       <c r="B505">
-        <v>1365.3532509</v>
+        <v>1365.3530739</v>
       </c>
       <c r="C505">
         <v>0.4131955</v>
@@ -5952,7 +5952,7 @@
         <v>43169</v>
       </c>
       <c r="B506">
-        <v>1372.9628339</v>
+        <v>1372.9625582</v>
       </c>
       <c r="C506">
         <v>0.4001788</v>
@@ -5963,7 +5963,7 @@
         <v>43169</v>
       </c>
       <c r="B507">
-        <v>1372.9628339</v>
+        <v>1372.9625582</v>
       </c>
       <c r="C507">
         <v>0.4001788</v>
@@ -5974,7 +5974,7 @@
         <v>43170</v>
       </c>
       <c r="B508">
-        <v>1380.5014937</v>
+        <v>1380.5010686</v>
       </c>
       <c r="C508">
         <v>0.4001788</v>
@@ -5985,7 +5985,7 @@
         <v>43170</v>
       </c>
       <c r="B509">
-        <v>1380.5014937</v>
+        <v>1380.5010686</v>
       </c>
       <c r="C509">
         <v>0.4001788</v>
@@ -5996,7 +5996,7 @@
         <v>43171</v>
       </c>
       <c r="B510">
-        <v>1387.973193</v>
+        <v>1387.9725444</v>
       </c>
       <c r="C510">
         <v>0.4001788</v>
@@ -6007,7 +6007,7 @@
         <v>43171</v>
       </c>
       <c r="B511">
-        <v>1387.973193</v>
+        <v>1387.9725444</v>
       </c>
       <c r="C511">
         <v>0.4001788</v>
@@ -6018,7 +6018,7 @@
         <v>43172</v>
       </c>
       <c r="B512">
-        <v>1395.3810979</v>
+        <v>1395.3801191</v>
       </c>
       <c r="C512">
         <v>0.4001788</v>
@@ -6029,7 +6029,7 @@
         <v>43172</v>
       </c>
       <c r="B513">
-        <v>1395.3810979</v>
+        <v>1395.3801191</v>
       </c>
       <c r="C513">
         <v>0.4001788</v>
@@ -6040,7 +6040,7 @@
         <v>43173</v>
       </c>
       <c r="B514">
-        <v>1402.7275923</v>
+        <v>1402.7261308</v>
       </c>
       <c r="C514">
         <v>0.4001788</v>
@@ -6051,7 +6051,7 @@
         <v>43173</v>
       </c>
       <c r="B515">
-        <v>1402.7275923</v>
+        <v>1402.7261308</v>
       </c>
       <c r="C515">
         <v>0.4001788</v>
@@ -6062,7 +6062,7 @@
         <v>43174</v>
       </c>
       <c r="B516">
-        <v>1410.0143121</v>
+        <v>1410.0121532</v>
       </c>
       <c r="C516">
         <v>0.4001788</v>
@@ -6073,7 +6073,7 @@
         <v>43174</v>
       </c>
       <c r="B517">
-        <v>1410.0143121</v>
+        <v>1410.0121532</v>
       </c>
       <c r="C517">
         <v>0.4001788</v>
@@ -6084,7 +6084,7 @@
         <v>43175</v>
       </c>
       <c r="B518">
-        <v>1417.242197</v>
+        <v>1417.2390424</v>
       </c>
       <c r="C518">
         <v>0.4001788</v>
@@ -6095,7 +6095,7 @@
         <v>43175</v>
       </c>
       <c r="B519">
-        <v>1417.242197</v>
+        <v>1417.2390424</v>
       </c>
       <c r="C519">
         <v>0.4001788</v>
@@ -6106,7 +6106,7 @@
         <v>43176</v>
       </c>
       <c r="B520">
-        <v>1424.4115583</v>
+        <v>1424.4069987</v>
       </c>
       <c r="C520">
         <v>0.3867581</v>
@@ -6117,7 +6117,7 @@
         <v>43176</v>
       </c>
       <c r="B521">
-        <v>1424.4115583</v>
+        <v>1424.4069987</v>
       </c>
       <c r="C521">
         <v>0.3867581</v>
@@ -6128,7 +6128,7 @@
         <v>43177</v>
       </c>
       <c r="B522">
-        <v>1431.5221571</v>
+        <v>1431.5156388</v>
       </c>
       <c r="C522">
         <v>0.3867581</v>
@@ -6139,7 +6139,7 @@
         <v>43177</v>
       </c>
       <c r="B523">
-        <v>1431.5221571</v>
+        <v>1431.5156388</v>
       </c>
       <c r="C523">
         <v>0.3867581</v>
@@ -6150,7 +6150,7 @@
         <v>43178</v>
       </c>
       <c r="B524">
-        <v>1438.5732913</v>
+        <v>1438.5640748</v>
       </c>
       <c r="C524">
         <v>0.3867581</v>
@@ -6161,7 +6161,7 @@
         <v>43178</v>
       </c>
       <c r="B525">
-        <v>1438.5732913</v>
+        <v>1438.5640748</v>
       </c>
       <c r="C525">
         <v>0.3867581</v>
@@ -6172,7 +6172,7 @@
         <v>43179</v>
       </c>
       <c r="B526">
-        <v>1445.5638852</v>
+        <v>1445.5509976</v>
       </c>
       <c r="C526">
         <v>0.3867581</v>
@@ -6183,7 +6183,7 @@
         <v>43179</v>
       </c>
       <c r="B527">
-        <v>1445.5638852</v>
+        <v>1445.5509976</v>
       </c>
       <c r="C527">
         <v>0.3867581</v>
@@ -6194,7 +6194,7 @@
         <v>43180</v>
       </c>
       <c r="B528">
-        <v>1452.4925791</v>
+        <v>1452.4747585</v>
       </c>
       <c r="C528">
         <v>0.3867581</v>
@@ -6205,7 +6205,7 @@
         <v>43180</v>
       </c>
       <c r="B529">
-        <v>1452.4925791</v>
+        <v>1452.4747585</v>
       </c>
       <c r="C529">
         <v>0.3867581</v>
@@ -6216,7 +6216,7 @@
         <v>43181</v>
       </c>
       <c r="B530">
-        <v>1459.3578122</v>
+        <v>1459.3334461</v>
       </c>
       <c r="C530">
         <v>0.3867581</v>
@@ -6227,7 +6227,7 @@
         <v>43181</v>
       </c>
       <c r="B531">
-        <v>1459.3578122</v>
+        <v>1459.3334461</v>
       </c>
       <c r="C531">
         <v>0.3867581</v>
@@ -6238,7 +6238,7 @@
         <v>43182</v>
       </c>
       <c r="B532">
-        <v>1466.157895</v>
+        <v>1466.1249553</v>
       </c>
       <c r="C532">
         <v>0.3867581</v>
@@ -6249,7 +6249,7 @@
         <v>43182</v>
       </c>
       <c r="B533">
-        <v>1466.157895</v>
+        <v>1466.1249553</v>
       </c>
       <c r="C533">
         <v>0.3867581</v>
@@ -6260,7 +6260,7 @@
         <v>43183</v>
       </c>
       <c r="B534">
-        <v>1472.8910677</v>
+        <v>1472.8470439</v>
       </c>
       <c r="C534">
         <v>0.3731817</v>
@@ -6271,7 +6271,7 @@
         <v>43183</v>
       </c>
       <c r="B535">
-        <v>1472.8910677</v>
+        <v>1472.8470439</v>
       </c>
       <c r="C535">
         <v>0.3731817</v>
@@ -6282,7 +6282,7 @@
         <v>43184</v>
       </c>
       <c r="B536">
-        <v>1479.5555395</v>
+        <v>1479.4973773</v>
       </c>
       <c r="C536">
         <v>0.3731817</v>
@@ -6293,7 +6293,7 @@
         <v>43184</v>
       </c>
       <c r="B537">
-        <v>1479.5555395</v>
+        <v>1479.4973773</v>
       </c>
       <c r="C537">
         <v>0.3731817</v>
@@ -6304,7 +6304,7 @@
         <v>43185</v>
       </c>
       <c r="B538">
-        <v>1486.1495093</v>
+        <v>1486.0735591</v>
       </c>
       <c r="C538">
         <v>0.3731817</v>
@@ -6315,7 +6315,7 @@
         <v>43185</v>
       </c>
       <c r="B539">
-        <v>1486.1495093</v>
+        <v>1486.0735591</v>
       </c>
       <c r="C539">
         <v>0.3731817</v>
@@ -6326,7 +6326,7 @@
         <v>43186</v>
       </c>
       <c r="B540">
-        <v>1492.6711657</v>
+        <v>1492.5731499</v>
       </c>
       <c r="C540">
         <v>0.3731817</v>
@@ -6337,7 +6337,7 @@
         <v>43186</v>
       </c>
       <c r="B541">
-        <v>1492.6711657</v>
+        <v>1492.5731499</v>
       </c>
       <c r="C541">
         <v>0.3731817</v>
@@ -6348,7 +6348,7 @@
         <v>43187</v>
       </c>
       <c r="B542">
-        <v>1499.1186683</v>
+        <v>1498.9936772</v>
       </c>
       <c r="C542">
         <v>0.3731817</v>
@@ -6359,7 +6359,7 @@
         <v>43187</v>
       </c>
       <c r="B543">
-        <v>1499.1186683</v>
+        <v>1498.9936772</v>
       </c>
       <c r="C543">
         <v>0.3731817</v>
@@ -6370,7 +6370,7 @@
         <v>43188</v>
       </c>
       <c r="B544">
-        <v>1505.4901138</v>
+        <v>1505.3326405</v>
       </c>
       <c r="C544">
         <v>0.3731817</v>
@@ -6381,7 +6381,7 @@
         <v>43188</v>
       </c>
       <c r="B545">
-        <v>1505.4901138</v>
+        <v>1505.3326405</v>
       </c>
       <c r="C545">
         <v>0.3731817</v>
@@ -6392,7 +6392,7 @@
         <v>43189</v>
       </c>
       <c r="B546">
-        <v>1511.783493</v>
+        <v>1511.5875187</v>
       </c>
       <c r="C546">
         <v>0.3731817</v>
@@ -6403,7 +6403,7 @@
         <v>43189</v>
       </c>
       <c r="B547">
-        <v>1511.783493</v>
+        <v>1511.5875187</v>
       </c>
       <c r="C547">
         <v>0.3731817</v>
@@ -6414,7 +6414,7 @@
         <v>43190</v>
       </c>
       <c r="B548">
-        <v>1517.9966447</v>
+        <v>1517.7557843</v>
       </c>
       <c r="C548">
         <v>0.359152</v>
@@ -6425,7 +6425,7 @@
         <v>43190</v>
       </c>
       <c r="B549">
-        <v>1517.9966447</v>
+        <v>1517.7557843</v>
       </c>
       <c r="C549">
         <v>0.359152</v>
@@ -6436,7 +6436,7 @@
         <v>43191</v>
       </c>
       <c r="B550">
-        <v>1524.1272146</v>
+        <v>1523.8349341</v>
       </c>
       <c r="C550">
         <v>0.359152</v>
@@ -6447,7 +6447,7 @@
         <v>43191</v>
       </c>
       <c r="B551">
-        <v>1524.1272146</v>
+        <v>1523.8349341</v>
       </c>
       <c r="C551">
         <v>0.359152</v>
@@ -6458,7 +6458,7 @@
         <v>43192</v>
       </c>
       <c r="B552">
-        <v>1530.1726301</v>
+        <v>1529.8225392</v>
       </c>
       <c r="C552">
         <v>0.359152</v>
@@ -6469,7 +6469,7 @@
         <v>43192</v>
       </c>
       <c r="B553">
-        <v>1530.1726301</v>
+        <v>1529.8225392</v>
       </c>
       <c r="C553">
         <v>0.359152</v>
@@ -6480,7 +6480,7 @@
         <v>43193</v>
       </c>
       <c r="B554">
-        <v>1536.1300971</v>
+        <v>1535.7163219</v>
       </c>
       <c r="C554">
         <v>0.359152</v>
@@ -6491,7 +6491,7 @@
         <v>43193</v>
       </c>
       <c r="B555">
-        <v>1536.1300971</v>
+        <v>1535.7163219</v>
       </c>
       <c r="C555">
         <v>0.359152</v>
@@ -6502,7 +6502,7 @@
         <v>43194</v>
       </c>
       <c r="B556">
-        <v>1541.996628</v>
+        <v>1541.5142602</v>
       </c>
       <c r="C556">
         <v>0.359152</v>
@@ -6513,7 +6513,7 @@
         <v>43194</v>
       </c>
       <c r="B557">
-        <v>1541.996628</v>
+        <v>1541.5142602</v>
       </c>
       <c r="C557">
         <v>0.359152</v>
@@ -6524,7 +6524,7 @@
         <v>43195</v>
       </c>
       <c r="B558">
-        <v>1547.7691063</v>
+        <v>1547.2147202</v>
       </c>
       <c r="C558">
         <v>0.359152</v>
@@ -6535,7 +6535,7 @@
         <v>43195</v>
       </c>
       <c r="B559">
-        <v>1547.7691063</v>
+        <v>1547.2147202</v>
       </c>
       <c r="C559">
         <v>0.359152</v>
@@ -6546,7 +6546,7 @@
         <v>43196</v>
       </c>
       <c r="B560">
-        <v>1553.4443919</v>
+        <v>1552.8166142</v>
       </c>
       <c r="C560">
         <v>0.359152</v>
@@ -6557,7 +6557,7 @@
         <v>43196</v>
       </c>
       <c r="B561">
-        <v>1553.4443919</v>
+        <v>1552.8166142</v>
       </c>
       <c r="C561">
         <v>0.359152</v>
@@ -6568,7 +6568,7 @@
         <v>43197</v>
       </c>
       <c r="B562">
-        <v>1559.0194654</v>
+        <v>1558.3195771</v>
       </c>
       <c r="C562">
         <v>0.3436908</v>
@@ -6579,7 +6579,7 @@
         <v>43197</v>
       </c>
       <c r="B563">
-        <v>1559.0194654</v>
+        <v>1558.3195771</v>
       </c>
       <c r="C563">
         <v>0.3436908</v>
@@ -6590,7 +6590,7 @@
         <v>43198</v>
       </c>
       <c r="B564">
-        <v>1564.49161</v>
+        <v>1563.7241546</v>
       </c>
       <c r="C564">
         <v>0.3436908</v>
@@ -6601,7 +6601,7 @@
         <v>43198</v>
       </c>
       <c r="B565">
-        <v>1564.49161</v>
+        <v>1563.7241546</v>
       </c>
       <c r="C565">
         <v>0.3436908</v>
@@ -6612,7 +6612,7 @@
         <v>43199</v>
       </c>
       <c r="B566">
-        <v>1569.8586232</v>
+        <v>1569.0319907</v>
       </c>
       <c r="C566">
         <v>0.3436908</v>
@@ -6623,7 +6623,7 @@
         <v>43199</v>
       </c>
       <c r="B567">
-        <v>1569.8586232</v>
+        <v>1569.0319907</v>
       </c>
       <c r="C567">
         <v>0.3436908</v>
@@ -6634,7 +6634,7 @@
         <v>43200</v>
       </c>
       <c r="B568">
-        <v>1575.1190487</v>
+        <v>1574.2460043</v>
       </c>
       <c r="C568">
         <v>0.3436908</v>
@@ -6645,7 +6645,7 @@
         <v>43200</v>
       </c>
       <c r="B569">
-        <v>1575.1190487</v>
+        <v>1574.2460043</v>
       </c>
       <c r="C569">
         <v>0.3436908</v>
@@ -6656,7 +6656,7 @@
         <v>43201</v>
       </c>
       <c r="B570">
-        <v>1580.2724166</v>
+        <v>1579.3705425</v>
       </c>
       <c r="C570">
         <v>0.3436908</v>
@@ -6667,7 +6667,7 @@
         <v>43201</v>
       </c>
       <c r="B571">
-        <v>1580.2724166</v>
+        <v>1579.3705425</v>
       </c>
       <c r="C571">
         <v>0.3436908</v>
@@ -6678,7 +6678,7 @@
         <v>43202</v>
       </c>
       <c r="B572">
-        <v>1585.3194771</v>
+        <v>1584.411499</v>
       </c>
       <c r="C572">
         <v>0.3436908</v>
@@ -6689,7 +6689,7 @@
         <v>43202</v>
       </c>
       <c r="B573">
-        <v>1585.3194771</v>
+        <v>1584.411499</v>
       </c>
       <c r="C573">
         <v>0.3436908</v>
@@ -6700,7 +6700,7 @@
         <v>43203</v>
       </c>
       <c r="B574">
-        <v>1590.2624157</v>
+        <v>1589.3763857</v>
       </c>
       <c r="C574">
         <v>0.3436908</v>
@@ -6711,7 +6711,7 @@
         <v>43203</v>
       </c>
       <c r="B575">
-        <v>1590.2624157</v>
+        <v>1589.3763857</v>
       </c>
       <c r="C575">
         <v>0.3436908</v>
@@ -6722,7 +6722,7 @@
         <v>43204</v>
       </c>
       <c r="B576">
-        <v>1595.1050339</v>
+        <v>1594.2743503</v>
       </c>
       <c r="C576">
         <v>0.3252464</v>
@@ -6733,7 +6733,7 @@
         <v>43204</v>
       </c>
       <c r="B577">
-        <v>1595.1050339</v>
+        <v>1594.2743503</v>
       </c>
       <c r="C577">
         <v>0.3252464</v>
@@ -6744,7 +6744,7 @@
         <v>43205</v>
       </c>
       <c r="B578">
-        <v>1599.8528854</v>
+        <v>1599.1161298</v>
       </c>
       <c r="C578">
         <v>0.3252464</v>
@@ -6755,7 +6755,7 @@
         <v>43205</v>
       </c>
       <c r="B579">
-        <v>1599.8528854</v>
+        <v>1599.1161298</v>
       </c>
       <c r="C579">
         <v>0.3252464</v>
@@ -6766,7 +6766,7 @@
         <v>43206</v>
       </c>
       <c r="B580">
-        <v>1604.5133564</v>
+        <v>1603.9139351</v>
       </c>
       <c r="C580">
         <v>0.3252464</v>
@@ -6777,7 +6777,7 @@
         <v>43206</v>
       </c>
       <c r="B581">
-        <v>1604.5133564</v>
+        <v>1603.9139351</v>
       </c>
       <c r="C581">
         <v>0.3252464</v>
@@ -6788,7 +6788,7 @@
         <v>43207</v>
       </c>
       <c r="B582">
-        <v>1609.0956833</v>
+        <v>1608.6812603</v>
       </c>
       <c r="C582">
         <v>0.3252464</v>
@@ -6799,7 +6799,7 @@
         <v>43207</v>
       </c>
       <c r="B583">
-        <v>1609.0956833</v>
+        <v>1608.6812603</v>
       </c>
       <c r="C583">
         <v>0.3252464</v>
@@ -6810,7 +6810,7 @@
         <v>43208</v>
       </c>
       <c r="B584">
-        <v>1613.6109016</v>
+        <v>1613.4326135</v>
       </c>
       <c r="C584">
         <v>0.3252464</v>
@@ -6821,7 +6821,7 @@
         <v>43208</v>
       </c>
       <c r="B585">
-        <v>1613.6109016</v>
+        <v>1613.4326135</v>
       </c>
       <c r="C585">
         <v>0.3252464</v>
@@ -6832,7 +6832,7 @@
         <v>43209</v>
       </c>
       <c r="B586">
-        <v>1618.0717234</v>
+        <v>1618.1831656</v>
       </c>
       <c r="C586">
         <v>0.3252464</v>
@@ -6843,7 +6843,7 @@
         <v>43209</v>
       </c>
       <c r="B587">
-        <v>1618.0717234</v>
+        <v>1618.1831656</v>
       </c>
       <c r="C587">
         <v>0.3252464</v>
@@ -6854,7 +6854,7 @@
         <v>43210</v>
       </c>
       <c r="B588">
-        <v>1622.4923421</v>
+        <v>1622.9483167</v>
       </c>
       <c r="C588">
         <v>0.3252464</v>
@@ -6865,7 +6865,7 @@
         <v>43210</v>
       </c>
       <c r="B589">
-        <v>1622.4923421</v>
+        <v>1622.9483167</v>
       </c>
       <c r="C589">
         <v>0.3252464</v>
@@ -6876,7 +6876,7 @@
         <v>43211</v>
       </c>
       <c r="B590">
-        <v>1626.8881615</v>
+        <v>1627.7431803</v>
       </c>
       <c r="C590">
         <v>0.3021063</v>
@@ -6887,7 +6887,7 @@
         <v>43211</v>
       </c>
       <c r="B591">
-        <v>1626.8881615</v>
+        <v>1627.7431803</v>
       </c>
       <c r="C591">
         <v>0.3021063</v>
@@ -6898,7 +6898,7 @@
         <v>43212</v>
       </c>
       <c r="B592">
-        <v>1631.2754515</v>
+        <v>1632.5819912</v>
       </c>
       <c r="C592">
         <v>0.3021063</v>
@@ -6909,7 +6909,7 @@
         <v>43212</v>
       </c>
       <c r="B593">
-        <v>1631.2754515</v>
+        <v>1632.5819912</v>
       </c>
       <c r="C593">
         <v>0.3021063</v>
@@ -6920,7 +6920,7 @@
         <v>43213</v>
       </c>
       <c r="B594">
-        <v>1635.6709287</v>
+        <v>1637.4774466</v>
       </c>
       <c r="C594">
         <v>0.3021063</v>
@@ -6931,7 +6931,7 @@
         <v>43213</v>
       </c>
       <c r="B595">
-        <v>1635.6709287</v>
+        <v>1637.4774466</v>
       </c>
       <c r="C595">
         <v>0.3021063</v>
@@ -6942,7 +6942,7 @@
         <v>43214</v>
       </c>
       <c r="B596">
-        <v>1640.0912636</v>
+        <v>1642.4400004</v>
       </c>
       <c r="C596">
         <v>0.3021063</v>
@@ -6953,7 +6953,7 @@
         <v>43214</v>
       </c>
       <c r="B597">
-        <v>1640.0912636</v>
+        <v>1642.4400004</v>
       </c>
       <c r="C597">
         <v>0.3021063</v>
@@ -6964,7 +6964,7 @@
         <v>43215</v>
       </c>
       <c r="B598">
-        <v>1644.552517</v>
+        <v>1647.4771376</v>
       </c>
       <c r="C598">
         <v>0.3021063</v>
@@ -6972,10 +6972,10 @@
     </row>
     <row r="599" spans="1:3">
       <c r="A599" s="2">
-        <v>43215</v>
+        <v>43216</v>
       </c>
       <c r="B599">
-        <v>1644.552517</v>
+        <v>1652.5926707</v>
       </c>
       <c r="C599">
         <v>0.3021063</v>
@@ -6983,10 +6983,10 @@
     </row>
     <row r="600" spans="1:3">
       <c r="A600" s="2">
-        <v>43216</v>
+        <v>43217</v>
       </c>
       <c r="B600">
-        <v>1649.0695113</v>
+        <v>1657.7861082</v>
       </c>
       <c r="C600">
         <v>0.3021063</v>
@@ -6994,43 +6994,43 @@
     </row>
     <row r="601" spans="1:3">
       <c r="A601" s="2">
-        <v>43216</v>
+        <v>43218</v>
       </c>
       <c r="B601">
-        <v>1649.0695113</v>
+        <v>1663.0521578</v>
       </c>
       <c r="C601">
-        <v>0.3021063</v>
+        <v>0.2732052</v>
       </c>
     </row>
     <row r="602" spans="1:3">
       <c r="A602" s="2">
-        <v>43217</v>
+        <v>43219</v>
       </c>
       <c r="B602">
-        <v>1653.6551482</v>
+        <v>1668.3804302</v>
       </c>
       <c r="C602">
-        <v>0.3021063</v>
+        <v>0.2732052</v>
       </c>
     </row>
     <row r="603" spans="1:3">
       <c r="A603" s="2">
-        <v>43217</v>
+        <v>43220</v>
       </c>
       <c r="B603">
-        <v>1653.6551482</v>
+        <v>1673.7554068</v>
       </c>
       <c r="C603">
-        <v>0.3021063</v>
+        <v>0.2732052</v>
       </c>
     </row>
     <row r="604" spans="1:3">
       <c r="A604" s="2">
-        <v>43218</v>
+        <v>43221</v>
       </c>
       <c r="B604">
-        <v>1658.319691</v>
+        <v>1679.1567211</v>
       </c>
       <c r="C604">
         <v>0.2732052</v>
@@ -7038,10 +7038,10 @@
     </row>
     <row r="605" spans="1:3">
       <c r="A605" s="2">
-        <v>43218</v>
+        <v>43222</v>
       </c>
       <c r="B605">
-        <v>1658.319691</v>
+        <v>1684.5597763</v>
       </c>
       <c r="C605">
         <v>0.2732052</v>
@@ -7049,10 +7049,10 @@
     </row>
     <row r="606" spans="1:3">
       <c r="A606" s="2">
-        <v>43219</v>
+        <v>43223</v>
       </c>
       <c r="B606">
-        <v>1663.0700409</v>
+        <v>1689.9366914</v>
       </c>
       <c r="C606">
         <v>0.2732052</v>
@@ -7060,10 +7060,10 @@
     </row>
     <row r="607" spans="1:3">
       <c r="A607" s="2">
-        <v>43220</v>
+        <v>43224</v>
       </c>
       <c r="B607">
-        <v>1667.9090472</v>
+        <v>1695.2575205</v>
       </c>
       <c r="C607">
         <v>0.2732052</v>
@@ -7071,54 +7071,54 @@
     </row>
     <row r="608" spans="1:3">
       <c r="A608" s="2">
-        <v>43221</v>
+        <v>43225</v>
       </c>
       <c r="B608">
-        <v>1672.8349022</v>
+        <v>1700.4916568</v>
       </c>
       <c r="C608">
-        <v>0.2732052</v>
+        <v>0.2392081</v>
       </c>
     </row>
     <row r="609" spans="1:3">
       <c r="A609" s="2">
-        <v>43222</v>
+        <v>43226</v>
       </c>
       <c r="B609">
-        <v>1677.8406834</v>
+        <v>1705.6092978</v>
       </c>
       <c r="C609">
-        <v>0.2732052</v>
+        <v>0.2392081</v>
       </c>
     </row>
     <row r="610" spans="1:3">
       <c r="A610" s="2">
-        <v>43223</v>
+        <v>43227</v>
       </c>
       <c r="B610">
-        <v>1682.9141075</v>
+        <v>1710.5828378</v>
       </c>
       <c r="C610">
-        <v>0.2732052</v>
+        <v>0.2392081</v>
       </c>
     </row>
     <row r="611" spans="1:3">
       <c r="A611" s="2">
-        <v>43224</v>
+        <v>43228</v>
       </c>
       <c r="B611">
-        <v>1688.0375579</v>
+        <v>1715.3880592</v>
       </c>
       <c r="C611">
-        <v>0.2732052</v>
+        <v>0.2392081</v>
       </c>
     </row>
     <row r="612" spans="1:3">
       <c r="A612" s="2">
-        <v>43225</v>
+        <v>43229</v>
       </c>
       <c r="B612">
-        <v>1693.1884329</v>
+        <v>1720.0050202</v>
       </c>
       <c r="C612">
         <v>0.2392081</v>
@@ -7126,10 +7126,10 @@
     </row>
     <row r="613" spans="1:3">
       <c r="A613" s="2">
-        <v>43226</v>
+        <v>43230</v>
       </c>
       <c r="B613">
-        <v>1698.3398372</v>
+        <v>1724.41858</v>
       </c>
       <c r="C613">
         <v>0.2392081</v>
@@ -7137,10 +7137,10 @@
     </row>
     <row r="614" spans="1:3">
       <c r="A614" s="2">
-        <v>43227</v>
+        <v>43231</v>
       </c>
       <c r="B614">
-        <v>1703.461601</v>
+        <v>1728.6185495</v>
       </c>
       <c r="C614">
         <v>0.2392081</v>
@@ -7148,54 +7148,54 @@
     </row>
     <row r="615" spans="1:3">
       <c r="A615" s="2">
-        <v>43228</v>
+        <v>43232</v>
       </c>
       <c r="B615">
-        <v>1708.5215725</v>
+        <v>1732.5994999</v>
       </c>
       <c r="C615">
-        <v>0.2392081</v>
+        <v>0.2031097</v>
       </c>
     </row>
     <row r="616" spans="1:3">
       <c r="A616" s="2">
-        <v>43229</v>
+        <v>43233</v>
       </c>
       <c r="B616">
-        <v>1713.4870896</v>
+        <v>1736.3602993</v>
       </c>
       <c r="C616">
-        <v>0.2392081</v>
+        <v>0.2031097</v>
       </c>
     </row>
     <row r="617" spans="1:3">
       <c r="A617" s="2">
-        <v>43230</v>
+        <v>43234</v>
       </c>
       <c r="B617">
-        <v>1718.3265066</v>
+        <v>1739.9034637</v>
       </c>
       <c r="C617">
-        <v>0.2392081</v>
+        <v>0.2031097</v>
       </c>
     </row>
     <row r="618" spans="1:3">
       <c r="A618" s="2">
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B618">
-        <v>1723.0106404</v>
+        <v>1743.2344164</v>
       </c>
       <c r="C618">
-        <v>0.2392081</v>
+        <v>0.2031097</v>
       </c>
     </row>
     <row r="619" spans="1:3">
       <c r="A619" s="2">
-        <v>43232</v>
+        <v>43236</v>
       </c>
       <c r="B619">
-        <v>1727.5140073</v>
+        <v>1746.3607402</v>
       </c>
       <c r="C619">
         <v>0.2031097</v>
@@ -7203,10 +7203,10 @@
     </row>
     <row r="620" spans="1:3">
       <c r="A620" s="2">
-        <v>43233</v>
+        <v>43237</v>
       </c>
       <c r="B620">
-        <v>1731.8157507</v>
+        <v>1749.2914875</v>
       </c>
       <c r="C620">
         <v>0.2031097</v>
@@ -7214,10 +7214,10 @@
     </row>
     <row r="621" spans="1:3">
       <c r="A621" s="2">
-        <v>43234</v>
+        <v>43238</v>
       </c>
       <c r="B621">
-        <v>1735.9001999</v>
+        <v>1752.0365945</v>
       </c>
       <c r="C621">
         <v>0.2031097</v>
@@ -7225,54 +7225,54 @@
     </row>
     <row r="622" spans="1:3">
       <c r="A622" s="2">
-        <v>43235</v>
+        <v>43239</v>
       </c>
       <c r="B622">
-        <v>1739.75705</v>
+        <v>1754.6064214</v>
       </c>
       <c r="C622">
-        <v>0.2031097</v>
+        <v>0.1693216</v>
       </c>
     </row>
     <row r="623" spans="1:3">
       <c r="A623" s="2">
-        <v>43236</v>
+        <v>43240</v>
       </c>
       <c r="B623">
-        <v>1743.3811967</v>
+        <v>1757.0114222</v>
       </c>
       <c r="C623">
-        <v>0.2031097</v>
+        <v>0.1693216</v>
       </c>
     </row>
     <row r="624" spans="1:3">
       <c r="A624" s="2">
-        <v>43237</v>
+        <v>43241</v>
       </c>
       <c r="B624">
-        <v>1746.7722927</v>
+        <v>1759.2619325</v>
       </c>
       <c r="C624">
-        <v>0.2031097</v>
+        <v>0.1693216</v>
       </c>
     </row>
     <row r="625" spans="1:3">
       <c r="A625" s="2">
-        <v>43238</v>
+        <v>43242</v>
       </c>
       <c r="B625">
-        <v>1749.9341112</v>
+        <v>1761.3680554</v>
       </c>
       <c r="C625">
-        <v>0.2031097</v>
+        <v>0.1693216</v>
       </c>
     </row>
     <row r="626" spans="1:3">
       <c r="A626" s="2">
-        <v>43239</v>
+        <v>43243</v>
       </c>
       <c r="B626">
-        <v>1752.8738072</v>
+        <v>1763.339618</v>
       </c>
       <c r="C626">
         <v>0.1693216</v>
@@ -7280,10 +7280,10 @@
     </row>
     <row r="627" spans="1:3">
       <c r="A627" s="2">
-        <v>43240</v>
+        <v>43244</v>
       </c>
       <c r="B627">
-        <v>1755.6011556</v>
+        <v>1765.186173</v>
       </c>
       <c r="C627">
         <v>0.1693216</v>
@@ -7291,10 +7291,10 @@
     </row>
     <row r="628" spans="1:3">
       <c r="A628" s="2">
-        <v>43241</v>
+        <v>43245</v>
       </c>
       <c r="B628">
-        <v>1758.1278292</v>
+        <v>1766.9170206</v>
       </c>
       <c r="C628">
         <v>0.1693216</v>
@@ -7302,54 +7302,54 @@
     </row>
     <row r="629" spans="1:3">
       <c r="A629" s="2">
-        <v>43242</v>
+        <v>43246</v>
       </c>
       <c r="B629">
-        <v>1760.4667581</v>
+        <v>1768.5412292</v>
       </c>
       <c r="C629">
-        <v>0.1693216</v>
+        <v>0.1415221</v>
       </c>
     </row>
     <row r="630" spans="1:3">
       <c r="A630" s="2">
-        <v>43243</v>
+        <v>43247</v>
       </c>
       <c r="B630">
-        <v>1762.6315917</v>
+        <v>1770.0676407</v>
       </c>
       <c r="C630">
-        <v>0.1693216</v>
+        <v>0.1415221</v>
       </c>
     </row>
     <row r="631" spans="1:3">
       <c r="A631" s="2">
-        <v>43244</v>
+        <v>43248</v>
       </c>
       <c r="B631">
-        <v>1764.6362668</v>
+        <v>1771.5048523</v>
       </c>
       <c r="C631">
-        <v>0.1693216</v>
+        <v>0.1415221</v>
       </c>
     </row>
     <row r="632" spans="1:3">
       <c r="A632" s="2">
-        <v>43245</v>
+        <v>43249</v>
       </c>
       <c r="B632">
-        <v>1766.4946744</v>
+        <v>1772.8611683</v>
       </c>
       <c r="C632">
-        <v>0.1693216</v>
+        <v>0.1415221</v>
       </c>
     </row>
     <row r="633" spans="1:3">
       <c r="A633" s="2">
-        <v>43246</v>
+        <v>43250</v>
       </c>
       <c r="B633">
-        <v>1768.2204072</v>
+        <v>1774.1445273</v>
       </c>
       <c r="C633">
         <v>0.1415221</v>
@@ -7357,10 +7357,10 @@
     </row>
     <row r="634" spans="1:3">
       <c r="A634" s="2">
-        <v>43247</v>
+        <v>43251</v>
       </c>
       <c r="B634">
-        <v>1769.8265713</v>
+        <v>1775.362408</v>
       </c>
       <c r="C634">
         <v>0.1415221</v>
@@ -7368,10 +7368,10 @@
     </row>
     <row r="635" spans="1:3">
       <c r="A635" s="2">
-        <v>43248</v>
+        <v>43252</v>
       </c>
       <c r="B635">
-        <v>1771.3256416</v>
+        <v>1776.521723</v>
       </c>
       <c r="C635">
         <v>0.1415221</v>
@@ -7379,54 +7379,54 @@
     </row>
     <row r="636" spans="1:3">
       <c r="A636" s="2">
-        <v>43249</v>
+        <v>43253</v>
       </c>
       <c r="B636">
-        <v>1772.7293473</v>
+        <v>1777.628712</v>
       </c>
       <c r="C636">
-        <v>0.1415221</v>
+        <v>0.1211218</v>
       </c>
     </row>
     <row r="637" spans="1:3">
       <c r="A637" s="2">
-        <v>43250</v>
+        <v>43254</v>
       </c>
       <c r="B637">
-        <v>1774.0485749</v>
+        <v>1778.688844</v>
       </c>
       <c r="C637">
-        <v>0.1415221</v>
+        <v>0.1211218</v>
       </c>
     </row>
     <row r="638" spans="1:3">
       <c r="A638" s="2">
-        <v>43251</v>
+        <v>43255</v>
       </c>
       <c r="B638">
-        <v>1775.2932847</v>
+        <v>1779.7067399</v>
       </c>
       <c r="C638">
-        <v>0.1415221</v>
+        <v>0.1211218</v>
       </c>
     </row>
     <row r="639" spans="1:3">
       <c r="A639" s="2">
-        <v>43252</v>
+        <v>43256</v>
       </c>
       <c r="B639">
-        <v>1776.4724355</v>
+        <v>1780.6861241</v>
       </c>
       <c r="C639">
-        <v>0.1415221</v>
+        <v>0.1211218</v>
       </c>
     </row>
     <row r="640" spans="1:3">
       <c r="A640" s="2">
-        <v>43253</v>
+        <v>43257</v>
       </c>
       <c r="B640">
-        <v>1777.5939235</v>
+        <v>1781.6298098</v>
       </c>
       <c r="C640">
         <v>0.1211218</v>
@@ -7434,10 +7434,10 @@
     </row>
     <row r="641" spans="1:3">
       <c r="A641" s="2">
-        <v>43254</v>
+        <v>43258</v>
       </c>
       <c r="B641">
-        <v>1778.6645351</v>
+        <v>1782.5397233</v>
       </c>
       <c r="C641">
         <v>0.1211218</v>
@@ -7445,10 +7445,10 @@
     </row>
     <row r="642" spans="1:3">
       <c r="A642" s="2">
-        <v>43255</v>
+        <v>43259</v>
       </c>
       <c r="B642">
-        <v>1779.6899222</v>
+        <v>1783.4169655</v>
       </c>
       <c r="C642">
         <v>0.1211218</v>
@@ -7456,54 +7456,54 @@
     </row>
     <row r="643" spans="1:3">
       <c r="A643" s="2">
-        <v>43256</v>
+        <v>43260</v>
       </c>
       <c r="B643">
-        <v>1780.6746032</v>
+        <v>1784.2619083</v>
       </c>
       <c r="C643">
-        <v>0.1211218</v>
+        <v>0.1074483</v>
       </c>
     </row>
     <row r="644" spans="1:3">
       <c r="A644" s="2">
-        <v>43257</v>
+        <v>43261</v>
       </c>
       <c r="B644">
-        <v>1781.6219941</v>
+        <v>1785.0743187</v>
       </c>
       <c r="C644">
-        <v>0.1211218</v>
+        <v>0.1074483</v>
       </c>
     </row>
     <row r="645" spans="1:3">
       <c r="A645" s="2">
-        <v>43258</v>
+        <v>43262</v>
       </c>
       <c r="B645">
-        <v>1782.534472</v>
+        <v>1785.8535033</v>
       </c>
       <c r="C645">
-        <v>0.1211218</v>
+        <v>0.1074483</v>
       </c>
     </row>
     <row r="646" spans="1:3">
       <c r="A646" s="2">
-        <v>43259</v>
+        <v>43263</v>
       </c>
       <c r="B646">
-        <v>1783.4134707</v>
+        <v>1786.5984638</v>
       </c>
       <c r="C646">
-        <v>0.1211218</v>
+        <v>0.1074483</v>
       </c>
     </row>
     <row r="647" spans="1:3">
       <c r="A647" s="2">
-        <v>43260</v>
+        <v>43264</v>
       </c>
       <c r="B647">
-        <v>1784.2596042</v>
+        <v>1787.3080524</v>
       </c>
       <c r="C647">
         <v>0.1074483</v>
@@ -7511,10 +7511,10 @@
     </row>
     <row r="648" spans="1:3">
       <c r="A648" s="2">
-        <v>43261</v>
+        <v>43265</v>
       </c>
       <c r="B648">
-        <v>1785.0728135</v>
+        <v>1787.9811179</v>
       </c>
       <c r="C648">
         <v>0.1074483</v>
@@ -7522,10 +7522,10 @@
     </row>
     <row r="649" spans="1:3">
       <c r="A649" s="2">
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="B649">
-        <v>1785.8525289</v>
+        <v>1788.6166357</v>
       </c>
       <c r="C649">
         <v>0.1074483</v>
@@ -7533,54 +7533,54 @@
     </row>
     <row r="650" spans="1:3">
       <c r="A650" s="2">
-        <v>43263</v>
+        <v>43267</v>
       </c>
       <c r="B650">
-        <v>1786.5978386</v>
+        <v>1789.2138139</v>
       </c>
       <c r="C650">
-        <v>0.1074483</v>
+        <v>0.09887079999999999</v>
       </c>
     </row>
     <row r="651" spans="1:3">
       <c r="A651" s="2">
-        <v>43264</v>
+        <v>43268</v>
       </c>
       <c r="B651">
-        <v>1787.3076547</v>
+        <v>1789.7721722</v>
       </c>
       <c r="C651">
-        <v>0.1074483</v>
+        <v>0.09887079999999999</v>
       </c>
     </row>
     <row r="652" spans="1:3">
       <c r="A652" s="2">
-        <v>43265</v>
+        <v>43269</v>
       </c>
       <c r="B652">
-        <v>1787.9808671</v>
+        <v>1790.2915926</v>
       </c>
       <c r="C652">
-        <v>0.1074483</v>
+        <v>0.09887079999999999</v>
       </c>
     </row>
     <row r="653" spans="1:3">
       <c r="A653" s="2">
-        <v>43266</v>
+        <v>43270</v>
       </c>
       <c r="B653">
-        <v>1788.6164788</v>
+        <v>1790.7723426</v>
       </c>
       <c r="C653">
-        <v>0.1074483</v>
+        <v>0.09887079999999999</v>
       </c>
     </row>
     <row r="654" spans="1:3">
       <c r="A654" s="2">
-        <v>43267</v>
+        <v>43271</v>
       </c>
       <c r="B654">
-        <v>1789.2137166</v>
+        <v>1791.2150732</v>
       </c>
       <c r="C654">
         <v>0.09887079999999999</v>
@@ -7588,10 +7588,10 @@
     </row>
     <row r="655" spans="1:3">
       <c r="A655" s="2">
-        <v>43268</v>
+        <v>43272</v>
       </c>
       <c r="B655">
-        <v>1789.7721122</v>
+        <v>1791.6207961</v>
       </c>
       <c r="C655">
         <v>0.09887079999999999</v>
@@ -7599,10 +7599,10 @@
     </row>
     <row r="656" spans="1:3">
       <c r="A656" s="2">
-        <v>43269</v>
+        <v>43273</v>
       </c>
       <c r="B656">
-        <v>1790.2915559</v>
+        <v>1791.9908449</v>
       </c>
       <c r="C656">
         <v>0.09887079999999999</v>
@@ -7610,54 +7610,54 @@
     </row>
     <row r="657" spans="1:3">
       <c r="A657" s="2">
-        <v>43270</v>
+        <v>43274</v>
       </c>
       <c r="B657">
-        <v>1790.7723203</v>
+        <v>1792.3268248</v>
       </c>
       <c r="C657">
-        <v>0.09887079999999999</v>
+        <v>0.09348770000000001</v>
       </c>
     </row>
     <row r="658" spans="1:3">
       <c r="A658" s="2">
-        <v>43271</v>
+        <v>43275</v>
       </c>
       <c r="B658">
-        <v>1791.2150598</v>
+        <v>1792.6305567</v>
       </c>
       <c r="C658">
-        <v>0.09887079999999999</v>
+        <v>0.09348770000000001</v>
       </c>
     </row>
     <row r="659" spans="1:3">
       <c r="A659" s="2">
-        <v>43272</v>
+        <v>43276</v>
       </c>
       <c r="B659">
-        <v>1791.6207881</v>
+        <v>1792.9040191</v>
       </c>
       <c r="C659">
-        <v>0.09887079999999999</v>
+        <v>0.09348770000000001</v>
       </c>
     </row>
     <row r="660" spans="1:3">
       <c r="A660" s="2">
-        <v>43273</v>
+        <v>43277</v>
       </c>
       <c r="B660">
-        <v>1791.9908401</v>
+        <v>1793.1492912</v>
       </c>
       <c r="C660">
-        <v>0.09887079999999999</v>
+        <v>0.09348770000000001</v>
       </c>
     </row>
     <row r="661" spans="1:3">
       <c r="A661" s="2">
-        <v>43274</v>
+        <v>43278</v>
       </c>
       <c r="B661">
-        <v>1792.326822</v>
+        <v>1793.3685009</v>
       </c>
       <c r="C661">
         <v>0.09348770000000001</v>
@@ -7665,10 +7665,10 @@
     </row>
     <row r="662" spans="1:3">
       <c r="A662" s="2">
-        <v>43275</v>
+        <v>43279</v>
       </c>
       <c r="B662">
-        <v>1792.6305551</v>
+        <v>1793.5637783</v>
       </c>
       <c r="C662">
         <v>0.09348770000000001</v>
@@ -7676,10 +7676,10 @@
     </row>
     <row r="663" spans="1:3">
       <c r="A663" s="2">
-        <v>43276</v>
+        <v>43280</v>
       </c>
       <c r="B663">
-        <v>1792.9040181</v>
+        <v>1793.7372166</v>
       </c>
       <c r="C663">
         <v>0.09348770000000001</v>
@@ -7687,56 +7687,12 @@
     </row>
     <row r="664" spans="1:3">
       <c r="A664" s="2">
-        <v>43277</v>
+        <v>43281</v>
       </c>
       <c r="B664">
-        <v>1793.1492907</v>
+        <v>1793.89084</v>
       </c>
       <c r="C664">
-        <v>0.09348770000000001</v>
-      </c>
-    </row>
-    <row r="665" spans="1:3">
-      <c r="A665" s="2">
-        <v>43278</v>
-      </c>
-      <c r="B665">
-        <v>1793.3685006</v>
-      </c>
-      <c r="C665">
-        <v>0.09348770000000001</v>
-      </c>
-    </row>
-    <row r="666" spans="1:3">
-      <c r="A666" s="2">
-        <v>43279</v>
-      </c>
-      <c r="B666">
-        <v>1793.5637781</v>
-      </c>
-      <c r="C666">
-        <v>0.09348770000000001</v>
-      </c>
-    </row>
-    <row r="667" spans="1:3">
-      <c r="A667" s="2">
-        <v>43280</v>
-      </c>
-      <c r="B667">
-        <v>1793.7372165</v>
-      </c>
-      <c r="C667">
-        <v>0.09348770000000001</v>
-      </c>
-    </row>
-    <row r="668" spans="1:3">
-      <c r="A668" s="2">
-        <v>43281</v>
-      </c>
-      <c r="B668">
-        <v>1793.8908399</v>
-      </c>
-      <c r="C668">
         <v>0.09348770000000001</v>
       </c>
     </row>
